--- a/src/main/resources/ReleaseNotes.xlsx
+++ b/src/main/resources/ReleaseNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bulut/IdeaProjects/CucumberBey/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36821A6-E743-4056-9FB9-E16D9F562755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056936B-0E35-BC47-B4CF-360A86362ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,96 +404,96 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="169.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
